--- a/GPI-2021-overall-scores-and-domains-2008-2021.xlsx
+++ b/GPI-2021-overall-scores-and-domains-2008-2021.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.morgan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lawrence/Desktop/Georgetown_G1/PPOL_564_DS/Final_Project/PPOL_564_Final_Project_Zhan_Naiqiu_nz155/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96A34D3-5DCF-194A-A8EC-808C17117526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Gx6NJrAVpKhh4gOQmIuZDvmdYKpxl2vuVGjqd8sq8WcHxg/C5p/O3z2wYEZposRrz7EnC9WvlM/2uUg2vsG3DQ==" workbookSaltValue="tXm/O5PJPgaINoRIHQegLw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25200" windowHeight="23400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -1039,22 +1040,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1062,7 +1063,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1070,7 +1071,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1089,7 +1090,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1105,6 +1106,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1219,14 +1227,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - 着色 3" xfId="1" builtinId="38"/>
+    <cellStyle name="40% - 着色 3" xfId="2" builtinId="39"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1253,7 +1261,13 @@
     <xdr:ext cx="5191123" cy="1986826"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1426,7 +1440,13 @@
     <xdr:ext cx="7486650" cy="1125693"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1499,7 +1519,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1548,7 +1574,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1647,7 +1679,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1741,7 +1779,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1790,7 +1834,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1889,7 +1939,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1983,7 +2039,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2032,7 +2094,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2131,7 +2199,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2225,7 +2299,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2274,7 +2354,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2373,7 +2459,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2467,7 +2559,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4153,73 +4251,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="3" width="18.28515625" customWidth="1"/>
+    <col min="2" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="17">
       <c r="D2" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4">
       <c r="B9" s="3"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4">
       <c r="B10" s="3"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4">
       <c r="B11" s="3"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4">
       <c r="B13" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4">
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2">
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2">
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2">
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2">
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2">
       <c r="B23" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4227,22 +4326,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Z167"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="24" customHeight="1"/>
+    <row r="3" spans="1:26" ht="24.75" customHeight="1">
       <c r="D3" t="s">
         <v>5</v>
       </c>
@@ -4250,7 +4349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
@@ -4300,7 +4399,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="9" t="s">
         <v>162</v>
       </c>
@@ -4350,7 +4449,7 @@
         <v>3.6309999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="9" t="s">
         <v>52</v>
       </c>
@@ -4400,7 +4499,7 @@
         <v>1.8240000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="9" t="s">
         <v>110</v>
       </c>
@@ -4450,7 +4549,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="9" t="s">
         <v>76</v>
       </c>
@@ -4500,7 +4599,7 @@
         <v>2.0169999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="9" t="s">
         <v>74</v>
       </c>
@@ -4550,7 +4649,7 @@
         <v>1.9450000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="9" t="s">
         <v>117</v>
       </c>
@@ -4600,7 +4699,7 @@
         <v>2.0750000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
@@ -4650,7 +4749,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
@@ -4700,7 +4799,7 @@
         <v>1.3169999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="9" t="s">
         <v>129</v>
       </c>
@@ -4750,7 +4849,7 @@
         <v>2.3340000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="9" t="s">
         <v>123</v>
       </c>
@@ -4800,7 +4899,7 @@
         <v>2.121</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="9" t="s">
         <v>100</v>
       </c>
@@ -4850,7 +4949,7 @@
         <v>2.0680000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="9" t="s">
         <v>96</v>
       </c>
@@ -4900,7 +4999,7 @@
         <v>2.2850000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="9" t="s">
         <v>19</v>
       </c>
@@ -4950,7 +5049,7 @@
         <v>1.496</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="9" t="s">
         <v>72</v>
       </c>
@@ -5000,7 +5099,7 @@
         <v>2.093</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
@@ -5050,7 +5149,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="9" t="s">
         <v>84</v>
       </c>
@@ -5100,7 +5199,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="9" t="s">
         <v>80</v>
       </c>
@@ -5150,7 +5249,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="9" t="s">
         <v>31</v>
       </c>
@@ -5200,7 +5299,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="9" t="s">
         <v>115</v>
       </c>
@@ -5250,7 +5349,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="9" t="s">
         <v>27</v>
       </c>
@@ -5300,7 +5399,7 @@
         <v>1.577</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="9" t="s">
         <v>103</v>
       </c>
@@ -5350,7 +5449,7 @@
         <v>2.5270000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="9" t="s">
         <v>134</v>
       </c>
@@ -5400,7 +5499,7 @@
         <v>2.4340000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="9" t="s">
         <v>88</v>
       </c>
@@ -5450,7 +5549,7 @@
         <v>2.008</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="9" t="s">
         <v>137</v>
       </c>
@@ -5500,7 +5599,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="9" t="s">
         <v>7</v>
       </c>
@@ -5550,7 +5649,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="9" t="s">
         <v>156</v>
       </c>
@@ -5600,7 +5699,7 @@
         <v>3.1309999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -5650,7 +5749,7 @@
         <v>2.4889999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="9" t="s">
         <v>28</v>
       </c>
@@ -5700,7 +5799,7 @@
         <v>1.831</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="9" t="s">
         <v>109</v>
       </c>
@@ -5750,7 +5849,7 @@
         <v>2.1139999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="9" t="s">
         <v>142</v>
       </c>
@@ -5800,7 +5899,7 @@
         <v>2.694</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="9" t="s">
         <v>34</v>
       </c>
@@ -5850,7 +5949,7 @@
         <v>1.7350000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="9" t="s">
         <v>106</v>
       </c>
@@ -5900,7 +5999,7 @@
         <v>2.1230000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="9" t="s">
         <v>29</v>
       </c>
@@ -5950,7 +6049,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="9" t="s">
         <v>90</v>
       </c>
@@ -6000,7 +6099,7 @@
         <v>2.0419999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="9" t="s">
         <v>64</v>
       </c>
@@ -6050,7 +6149,7 @@
         <v>1.9119999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="9" t="s">
         <v>11</v>
       </c>
@@ -6100,7 +6199,7 @@
         <v>1.329</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="9" t="s">
         <v>154</v>
       </c>
@@ -6150,7 +6249,7 @@
         <v>3.1960000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" s="9" t="s">
         <v>6</v>
       </c>
@@ -6200,7 +6299,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="9" t="s">
         <v>108</v>
       </c>
@@ -6250,7 +6349,7 @@
         <v>2.1459999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="9" t="s">
         <v>83</v>
       </c>
@@ -6300,7 +6399,7 @@
         <v>2.024</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="9" t="s">
         <v>71</v>
       </c>
@@ -6350,7 +6449,7 @@
         <v>2.044</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="9" t="s">
         <v>135</v>
       </c>
@@ -6400,7 +6499,7 @@
         <v>2.3969999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="9" t="s">
         <v>112</v>
       </c>
@@ -6450,7 +6549,7 @@
         <v>2.1840000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="9" t="s">
         <v>70</v>
       </c>
@@ -6500,7 +6599,7 @@
         <v>1.915</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" s="9" t="s">
         <v>132</v>
       </c>
@@ -6550,7 +6649,7 @@
         <v>2.5550000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" s="9" t="s">
         <v>38</v>
       </c>
@@ -6600,7 +6699,7 @@
         <v>1.6120000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" s="9" t="s">
         <v>166</v>
       </c>
@@ -6650,7 +6749,7 @@
         <v>1.9550000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" s="9" t="s">
         <v>130</v>
       </c>
@@ -6700,7 +6799,7 @@
         <v>2.613</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" s="9" t="s">
         <v>15</v>
       </c>
@@ -6750,7 +6849,7 @@
         <v>1.4019999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" s="9" t="s">
         <v>61</v>
       </c>
@@ -6800,7 +6899,7 @@
         <v>1.8680000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" s="9" t="s">
         <v>95</v>
       </c>
@@ -6850,7 +6949,7 @@
         <v>2.0739999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" s="9" t="s">
         <v>98</v>
       </c>
@@ -6900,7 +6999,7 @@
         <v>2.0539999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="9" t="s">
         <v>23</v>
       </c>
@@ -6950,7 +7049,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" s="9" t="s">
         <v>45</v>
       </c>
@@ -7000,7 +7099,7 @@
         <v>1.7150000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" s="9" t="s">
         <v>66</v>
       </c>
@@ -7050,7 +7149,7 @@
         <v>1.9319999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" s="9" t="s">
         <v>113</v>
       </c>
@@ -7100,7 +7199,7 @@
         <v>2.1949999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" s="9" t="s">
         <v>99</v>
       </c>
@@ -7150,7 +7249,7 @@
         <v>2.069</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" s="9" t="s">
         <v>111</v>
       </c>
@@ -7200,7 +7299,7 @@
         <v>2.113</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" s="9" t="s">
         <v>91</v>
       </c>
@@ -7250,7 +7349,7 @@
         <v>2.1139999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" s="9" t="s">
         <v>86</v>
       </c>
@@ -7300,7 +7399,7 @@
         <v>2.1509999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" s="9" t="s">
         <v>122</v>
       </c>
@@ -7350,7 +7449,7 @@
         <v>2.371</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="9" t="s">
         <v>22</v>
       </c>
@@ -7400,7 +7499,7 @@
         <v>1.494</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67" s="9" t="s">
         <v>1</v>
       </c>
@@ -7450,7 +7549,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68" s="9" t="s">
         <v>140</v>
       </c>
@@ -7500,7 +7599,7 @@
         <v>2.5529999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69" s="9" t="s">
         <v>42</v>
       </c>
@@ -7550,7 +7649,7 @@
         <v>1.7829999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" s="9" t="s">
         <v>138</v>
       </c>
@@ -7600,7 +7699,7 @@
         <v>2.637</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" s="9" t="s">
         <v>158</v>
       </c>
@@ -7650,7 +7749,7 @@
         <v>3.2570000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72" s="9" t="s">
         <v>13</v>
       </c>
@@ -7700,7 +7799,7 @@
         <v>1.3260000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73" s="9" t="s">
         <v>145</v>
       </c>
@@ -7750,7 +7849,7 @@
         <v>2.669</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74" s="9" t="s">
         <v>40</v>
       </c>
@@ -7800,7 +7899,7 @@
         <v>1.6519999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="A75" s="9" t="s">
         <v>82</v>
       </c>
@@ -7850,7 +7949,7 @@
         <v>1.992</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="A76" s="9" t="s">
         <v>10</v>
       </c>
@@ -7900,7 +7999,7 @@
         <v>1.373</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="A77" s="9" t="s">
         <v>77</v>
       </c>
@@ -7950,7 +8049,7 @@
         <v>1.9159999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="A78" s="9" t="s">
         <v>65</v>
       </c>
@@ -8000,7 +8099,7 @@
         <v>1.9359999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="A79" s="9" t="s">
         <v>118</v>
       </c>
@@ -8050,7 +8149,7 @@
         <v>2.254</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="A80" s="9" t="s">
         <v>85</v>
       </c>
@@ -8100,7 +8199,7 @@
         <v>2.0169999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16">
       <c r="A81" s="9" t="s">
         <v>44</v>
       </c>
@@ -8150,7 +8249,7 @@
         <v>1.6879999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16">
       <c r="A82" s="9" t="s">
         <v>94</v>
       </c>
@@ -8200,7 +8299,7 @@
         <v>1.998</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16">
       <c r="A83" s="9" t="s">
         <v>46</v>
       </c>
@@ -8250,7 +8349,7 @@
         <v>1.8089999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16">
       <c r="A84" s="9" t="s">
         <v>36</v>
       </c>
@@ -8300,7 +8399,7 @@
         <v>1.6859999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16">
       <c r="A85" s="9" t="s">
         <v>146</v>
       </c>
@@ -8350,7 +8449,7 @@
         <v>2.7970000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="A86" s="9" t="s">
         <v>102</v>
       </c>
@@ -8400,7 +8499,7 @@
         <v>2.202</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16">
       <c r="A87" s="9" t="s">
         <v>60</v>
       </c>
@@ -8450,7 +8549,7 @@
         <v>1.998</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16">
       <c r="A88" s="9" t="s">
         <v>155</v>
       </c>
@@ -8500,7 +8599,7 @@
         <v>3.1659999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16">
       <c r="A89" s="9" t="s">
         <v>39</v>
       </c>
@@ -8550,7 +8649,7 @@
         <v>1.6890000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16">
       <c r="A90" s="9" t="s">
         <v>56</v>
       </c>
@@ -8600,7 +8699,7 @@
         <v>1.9630000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16">
       <c r="A91" s="9" t="s">
         <v>41</v>
       </c>
@@ -8650,7 +8749,7 @@
         <v>1.909</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16">
       <c r="A92" s="9" t="s">
         <v>17</v>
       </c>
@@ -8700,7 +8799,7 @@
         <v>1.5149999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16">
       <c r="A93" s="9" t="s">
         <v>144</v>
       </c>
@@ -8750,7 +8849,7 @@
         <v>2.8130000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16">
       <c r="A94" s="9" t="s">
         <v>121</v>
       </c>
@@ -8800,7 +8899,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16">
       <c r="A95" s="9" t="s">
         <v>25</v>
       </c>
@@ -8850,7 +8949,7 @@
         <v>1.5920000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16">
       <c r="A96" s="9" t="s">
         <v>139</v>
       </c>
@@ -8900,7 +8999,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="A97" s="9" t="s">
         <v>68</v>
       </c>
@@ -8950,7 +9049,7 @@
         <v>1.909</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="A98" s="9" t="s">
         <v>43</v>
       </c>
@@ -9000,7 +9099,7 @@
         <v>1.7829999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="A99" s="9" t="s">
         <v>67</v>
       </c>
@@ -9050,7 +9149,7 @@
         <v>1.847</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="A100" s="9" t="s">
         <v>89</v>
       </c>
@@ -9100,7 +9199,7 @@
         <v>2.0150000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="A101" s="9" t="s">
         <v>93</v>
       </c>
@@ -9150,7 +9249,7 @@
         <v>2.1230000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16">
       <c r="A102" s="9" t="s">
         <v>124</v>
       </c>
@@ -9200,7 +9299,7 @@
         <v>2.4569999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16">
       <c r="A103" s="9" t="s">
         <v>62</v>
       </c>
@@ -9250,7 +9349,7 @@
         <v>1.927</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16">
       <c r="A104" s="9" t="s">
         <v>75</v>
       </c>
@@ -9300,7 +9399,7 @@
         <v>2.0329999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105" s="9" t="s">
         <v>18</v>
       </c>
@@ -9350,7 +9449,7 @@
         <v>1.506</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="A106" s="9" t="s">
         <v>2</v>
       </c>
@@ -9400,7 +9499,7 @@
         <v>1.2529999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="A107" s="9" t="s">
         <v>119</v>
       </c>
@@ -9450,7 +9549,7 @@
         <v>2.4449999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="A108" s="9" t="s">
         <v>125</v>
       </c>
@@ -9500,7 +9599,7 @@
         <v>2.589</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16">
       <c r="A109" s="9" t="s">
         <v>147</v>
       </c>
@@ -9550,7 +9649,7 @@
         <v>2.7120000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16">
       <c r="A110" s="9" t="s">
         <v>148</v>
       </c>
@@ -9600,7 +9699,7 @@
         <v>2.923</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" s="9" t="s">
         <v>167</v>
       </c>
@@ -9650,7 +9749,7 @@
         <v>1.744</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16">
       <c r="A112" s="9" t="s">
         <v>21</v>
       </c>
@@ -9700,7 +9799,7 @@
         <v>1.4379999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16">
       <c r="A113" s="9" t="s">
         <v>69</v>
       </c>
@@ -9750,7 +9849,7 @@
         <v>1.982</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16">
       <c r="A114" s="9" t="s">
         <v>152</v>
       </c>
@@ -9800,7 +9899,7 @@
         <v>2.8679999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16">
       <c r="A115" s="9" t="s">
         <v>141</v>
       </c>
@@ -9834,7 +9933,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16">
       <c r="A116" s="9" t="s">
         <v>48</v>
       </c>
@@ -9884,7 +9983,7 @@
         <v>1.919</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16">
       <c r="A117" s="9" t="s">
         <v>97</v>
       </c>
@@ -9934,7 +10033,7 @@
         <v>2.149</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16">
       <c r="A118" s="9" t="s">
         <v>87</v>
       </c>
@@ -9984,7 +10083,7 @@
         <v>1.9970000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16">
       <c r="A119" s="9" t="s">
         <v>79</v>
       </c>
@@ -10034,7 +10133,7 @@
         <v>2.0339999999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16">
       <c r="A120" s="9" t="s">
         <v>133</v>
       </c>
@@ -10084,7 +10183,7 @@
         <v>2.4169999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16">
       <c r="A121" s="9" t="s">
         <v>30</v>
       </c>
@@ -10134,7 +10233,7 @@
         <v>1.524</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16">
       <c r="A122" s="9" t="s">
         <v>3</v>
       </c>
@@ -10184,7 +10283,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16">
       <c r="A123" s="9" t="s">
         <v>32</v>
       </c>
@@ -10234,7 +10333,7 @@
         <v>1.605</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16">
       <c r="A124" s="9" t="s">
         <v>120</v>
       </c>
@@ -10284,7 +10383,7 @@
         <v>2.2909999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16">
       <c r="A125" s="9" t="s">
         <v>26</v>
       </c>
@@ -10334,7 +10433,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16">
       <c r="A126" s="9" t="s">
         <v>153</v>
       </c>
@@ -10384,7 +10483,7 @@
         <v>2.9929999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16">
       <c r="A127" s="9" t="s">
         <v>78</v>
       </c>
@@ -10434,7 +10533,7 @@
         <v>2.028</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16">
       <c r="A128" s="9" t="s">
         <v>128</v>
       </c>
@@ -10484,7 +10583,7 @@
         <v>2.3759999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16">
       <c r="A129" s="9" t="s">
         <v>59</v>
       </c>
@@ -10534,7 +10633,7 @@
         <v>1.8640000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16">
       <c r="A130" s="9" t="s">
         <v>51</v>
       </c>
@@ -10584,7 +10683,7 @@
         <v>1.7969999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16">
       <c r="A131" s="9" t="s">
         <v>53</v>
       </c>
@@ -10634,7 +10733,7 @@
         <v>1.8129999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16">
       <c r="A132" s="9" t="s">
         <v>8</v>
       </c>
@@ -10684,7 +10783,7 @@
         <v>1.347</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16">
       <c r="A133" s="9" t="s">
         <v>24</v>
       </c>
@@ -10734,7 +10833,7 @@
         <v>1.5569999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16">
       <c r="A134" s="9" t="s">
         <v>9</v>
       </c>
@@ -10784,7 +10883,7 @@
         <v>1.3149999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16">
       <c r="A135" s="9" t="s">
         <v>157</v>
       </c>
@@ -10834,7 +10933,7 @@
         <v>3.2109999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16">
       <c r="A136" s="9" t="s">
         <v>126</v>
       </c>
@@ -10884,7 +10983,7 @@
         <v>2.3439999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16">
       <c r="A137" s="9" t="s">
         <v>57</v>
       </c>
@@ -10934,7 +11033,7 @@
         <v>1.877</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16">
       <c r="A138" s="9" t="s">
         <v>160</v>
       </c>
@@ -10978,7 +11077,7 @@
         <v>3.363</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16">
       <c r="A139" s="9" t="s">
         <v>33</v>
       </c>
@@ -11028,7 +11127,7 @@
         <v>1.621</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16">
       <c r="A140" s="9" t="s">
         <v>73</v>
       </c>
@@ -11078,7 +11177,7 @@
         <v>2.0830000000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16">
       <c r="A141" s="9" t="s">
         <v>150</v>
       </c>
@@ -11128,7 +11227,7 @@
         <v>2.9359999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16">
       <c r="A142" s="9" t="s">
         <v>20</v>
       </c>
@@ -11178,7 +11277,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16">
       <c r="A143" s="9" t="s">
         <v>12</v>
       </c>
@@ -11228,7 +11327,7 @@
         <v>1.323</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16">
       <c r="A144" s="9" t="s">
         <v>161</v>
       </c>
@@ -11278,7 +11377,7 @@
         <v>3.371</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16">
       <c r="A145" s="9" t="s">
         <v>37</v>
       </c>
@@ -11328,7 +11427,7 @@
         <v>1.6619999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16">
       <c r="A146" s="9" t="s">
         <v>104</v>
       </c>
@@ -11378,7 +11477,7 @@
         <v>2.0950000000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16">
       <c r="A147" s="9" t="s">
         <v>55</v>
       </c>
@@ -11428,7 +11527,7 @@
         <v>1.8919999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16">
       <c r="A148" s="9" t="s">
         <v>116</v>
       </c>
@@ -11478,7 +11577,7 @@
         <v>2.2050000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16">
       <c r="A149" s="9" t="s">
         <v>63</v>
       </c>
@@ -11528,7 +11627,7 @@
         <v>1.853</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16">
       <c r="A150" s="9" t="s">
         <v>49</v>
       </c>
@@ -11578,7 +11677,7 @@
         <v>1.873</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16">
       <c r="A151" s="9" t="s">
         <v>107</v>
       </c>
@@ -11628,7 +11727,7 @@
         <v>2.2389999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16">
       <c r="A152" s="9" t="s">
         <v>92</v>
       </c>
@@ -11678,7 +11777,7 @@
         <v>2.0289999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16">
       <c r="A153" s="9" t="s">
         <v>81</v>
       </c>
@@ -11728,7 +11827,7 @@
         <v>2.1080000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16">
       <c r="A154" s="9" t="s">
         <v>151</v>
       </c>
@@ -11778,7 +11877,7 @@
         <v>2.843</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16">
       <c r="A155" s="9" t="s">
         <v>114</v>
       </c>
@@ -11828,7 +11927,7 @@
         <v>2.1539999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16">
       <c r="A156" s="9" t="s">
         <v>105</v>
       </c>
@@ -11878,7 +11977,7 @@
         <v>2.2189999999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16">
       <c r="A157" s="9" t="s">
         <v>149</v>
       </c>
@@ -11928,7 +12027,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16">
       <c r="A158" s="9" t="s">
         <v>54</v>
       </c>
@@ -11978,7 +12077,7 @@
         <v>1.8480000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16">
       <c r="A159" s="9" t="s">
         <v>47</v>
       </c>
@@ -12028,7 +12127,7 @@
         <v>1.6579999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16">
       <c r="A160" s="9" t="s">
         <v>127</v>
       </c>
@@ -12078,7 +12177,7 @@
         <v>2.3370000000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16">
       <c r="A161" s="9" t="s">
         <v>35</v>
       </c>
@@ -12128,7 +12227,7 @@
         <v>1.8169999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16">
       <c r="A162" s="9" t="s">
         <v>101</v>
       </c>
@@ -12178,7 +12277,7 @@
         <v>2.0619999999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16">
       <c r="A163" s="9" t="s">
         <v>143</v>
       </c>
@@ -12228,7 +12327,7 @@
         <v>2.9340000000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16">
       <c r="A164" s="9" t="s">
         <v>58</v>
       </c>
@@ -12278,7 +12377,7 @@
         <v>1.835</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16">
       <c r="A165" s="9" t="s">
         <v>159</v>
       </c>
@@ -12328,7 +12427,7 @@
         <v>3.407</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16">
       <c r="A166" s="9" t="s">
         <v>50</v>
       </c>
@@ -12378,7 +12477,7 @@
         <v>1.964</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16">
       <c r="A167" s="9" t="s">
         <v>131</v>
       </c>
@@ -12429,9 +12528,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:P167">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:P167">
     <sortCondition ref="A5:A167"/>
   </sortState>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12439,22 +12539,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Z167"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:P167"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O25" sqref="O24:O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="24" customHeight="1"/>
+    <row r="3" spans="1:26" ht="24.75" customHeight="1">
       <c r="D3" t="s">
         <v>5</v>
       </c>
@@ -12462,7 +12562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
@@ -12509,7 +12609,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="9" t="s">
         <v>162</v>
       </c>
@@ -12559,7 +12659,7 @@
         <v>4.258</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="9" t="s">
         <v>52</v>
       </c>
@@ -12609,7 +12709,7 @@
         <v>2.2669999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="9" t="s">
         <v>110</v>
       </c>
@@ -12659,7 +12759,7 @@
         <v>2.5590000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="9" t="s">
         <v>76</v>
       </c>
@@ -12709,7 +12809,7 @@
         <v>2.4820000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="9" t="s">
         <v>74</v>
       </c>
@@ -12759,7 +12859,7 @@
         <v>2.641</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="9" t="s">
         <v>117</v>
       </c>
@@ -12809,7 +12909,7 @@
         <v>2.0390000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
@@ -12859,7 +12959,7 @@
         <v>1.6080000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
@@ -12909,7 +13009,7 @@
         <v>1.5569999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="9" t="s">
         <v>129</v>
       </c>
@@ -12959,7 +13059,7 @@
         <v>2.4620000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="9" t="s">
         <v>123</v>
       </c>
@@ -13009,7 +13109,7 @@
         <v>2.5710000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="9" t="s">
         <v>100</v>
       </c>
@@ -13059,7 +13159,7 @@
         <v>2.3559999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="9" t="s">
         <v>96</v>
       </c>
@@ -13109,7 +13209,7 @@
         <v>2.5720000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="9" t="s">
         <v>19</v>
       </c>
@@ -13159,7 +13259,7 @@
         <v>1.782</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="9" t="s">
         <v>72</v>
       </c>
@@ -13209,7 +13309,7 @@
         <v>2.5510000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
@@ -13259,7 +13359,7 @@
         <v>1.694</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="9" t="s">
         <v>84</v>
       </c>
@@ -13309,7 +13409,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="9" t="s">
         <v>80</v>
       </c>
@@ -13359,7 +13459,7 @@
         <v>2.3519999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="9" t="s">
         <v>31</v>
       </c>
@@ -13409,7 +13509,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="9" t="s">
         <v>115</v>
       </c>
@@ -13459,7 +13559,7 @@
         <v>3.2919999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="9" t="s">
         <v>27</v>
       </c>
@@ -13509,7 +13609,7 @@
         <v>1.974</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="9" t="s">
         <v>103</v>
       </c>
@@ -13559,7 +13659,7 @@
         <v>3.0019999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="9" t="s">
         <v>134</v>
       </c>
@@ -13609,7 +13709,7 @@
         <v>2.9910000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="9" t="s">
         <v>88</v>
       </c>
@@ -13659,7 +13759,7 @@
         <v>2.4039999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="9" t="s">
         <v>137</v>
       </c>
@@ -13709,7 +13809,7 @@
         <v>3.1419999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="9" t="s">
         <v>7</v>
       </c>
@@ -13759,7 +13859,7 @@
         <v>1.5009999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="9" t="s">
         <v>156</v>
       </c>
@@ -13809,7 +13909,7 @@
         <v>3.722</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -13859,7 +13959,7 @@
         <v>2.847</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="9" t="s">
         <v>28</v>
       </c>
@@ -13909,7 +14009,7 @@
         <v>2.4689999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="9" t="s">
         <v>109</v>
       </c>
@@ -13959,7 +14059,7 @@
         <v>2.2839999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="9" t="s">
         <v>142</v>
       </c>
@@ -14009,7 +14109,7 @@
         <v>3.4209999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="9" t="s">
         <v>34</v>
       </c>
@@ -14059,7 +14159,7 @@
         <v>2.202</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="9" t="s">
         <v>106</v>
       </c>
@@ -14109,7 +14209,7 @@
         <v>2.8010000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="9" t="s">
         <v>29</v>
       </c>
@@ -14159,7 +14259,7 @@
         <v>1.6379999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="9" t="s">
         <v>90</v>
       </c>
@@ -14209,7 +14309,7 @@
         <v>2.5009999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="9" t="s">
         <v>64</v>
       </c>
@@ -14259,7 +14359,7 @@
         <v>2.2530000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="9" t="s">
         <v>11</v>
       </c>
@@ -14309,7 +14409,7 @@
         <v>1.5860000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="9" t="s">
         <v>154</v>
       </c>
@@ -14359,7 +14459,7 @@
         <v>3.8809999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" s="9" t="s">
         <v>6</v>
       </c>
@@ -14409,7 +14509,7 @@
         <v>1.258</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="9" t="s">
         <v>108</v>
       </c>
@@ -14459,7 +14559,7 @@
         <v>2.504</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="9" t="s">
         <v>83</v>
       </c>
@@ -14509,7 +14609,7 @@
         <v>2.7130000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="9" t="s">
         <v>71</v>
       </c>
@@ -14559,7 +14659,7 @@
         <v>2.6970000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="9" t="s">
         <v>135</v>
       </c>
@@ -14609,7 +14709,7 @@
         <v>2.5910000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="9" t="s">
         <v>112</v>
       </c>
@@ -14659,7 +14759,7 @@
         <v>3.0219999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="9" t="s">
         <v>70</v>
       </c>
@@ -14709,7 +14809,7 @@
         <v>2.3730000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" s="9" t="s">
         <v>132</v>
       </c>
@@ -14759,7 +14859,7 @@
         <v>3.4820000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" s="9" t="s">
         <v>38</v>
       </c>
@@ -14809,7 +14909,7 @@
         <v>1.7809999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" s="9" t="s">
         <v>166</v>
       </c>
@@ -14859,7 +14959,7 @@
         <v>2.6110000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" s="9" t="s">
         <v>130</v>
       </c>
@@ -14909,7 +15009,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" s="9" t="s">
         <v>15</v>
       </c>
@@ -14959,7 +15059,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" s="9" t="s">
         <v>61</v>
       </c>
@@ -15009,7 +15109,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" s="9" t="s">
         <v>95</v>
       </c>
@@ -15059,7 +15159,7 @@
         <v>2.6560000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" s="9" t="s">
         <v>98</v>
       </c>
@@ -15109,7 +15209,7 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="9" t="s">
         <v>23</v>
       </c>
@@ -15159,7 +15259,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" s="9" t="s">
         <v>45</v>
       </c>
@@ -15209,7 +15309,7 @@
         <v>1.998</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" s="9" t="s">
         <v>66</v>
       </c>
@@ -15259,7 +15359,7 @@
         <v>1.9630000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" s="9" t="s">
         <v>113</v>
       </c>
@@ -15309,7 +15409,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" s="9" t="s">
         <v>99</v>
       </c>
@@ -15359,7 +15459,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" s="9" t="s">
         <v>111</v>
       </c>
@@ -15409,7 +15509,7 @@
         <v>2.5760000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" s="9" t="s">
         <v>91</v>
       </c>
@@ -15459,7 +15559,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" s="9" t="s">
         <v>86</v>
       </c>
@@ -15509,7 +15609,7 @@
         <v>2.8330000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" s="9" t="s">
         <v>122</v>
       </c>
@@ -15559,7 +15659,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="9" t="s">
         <v>22</v>
       </c>
@@ -15609,7 +15709,7 @@
         <v>1.7410000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67" s="9" t="s">
         <v>1</v>
       </c>
@@ -15659,7 +15759,7 @@
         <v>1.218</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68" s="9" t="s">
         <v>140</v>
       </c>
@@ -15709,7 +15809,7 @@
         <v>2.2839999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69" s="9" t="s">
         <v>42</v>
       </c>
@@ -15759,7 +15859,7 @@
         <v>2.1349999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" s="9" t="s">
         <v>138</v>
       </c>
@@ -15809,7 +15909,7 @@
         <v>2.879</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" s="9" t="s">
         <v>158</v>
       </c>
@@ -15859,7 +15959,7 @@
         <v>3.8879999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72" s="9" t="s">
         <v>13</v>
       </c>
@@ -15909,7 +16009,7 @@
         <v>1.6180000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73" s="9" t="s">
         <v>145</v>
       </c>
@@ -15959,7 +16059,7 @@
         <v>2.2879999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74" s="9" t="s">
         <v>40</v>
       </c>
@@ -16009,7 +16109,7 @@
         <v>1.978</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="A75" s="9" t="s">
         <v>82</v>
       </c>
@@ -16059,7 +16159,7 @@
         <v>2.8119999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="A76" s="9" t="s">
         <v>10</v>
       </c>
@@ -16109,7 +16209,7 @@
         <v>1.292</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="A77" s="9" t="s">
         <v>77</v>
       </c>
@@ -16159,7 +16259,7 @@
         <v>2.2370000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="A78" s="9" t="s">
         <v>65</v>
       </c>
@@ -16209,7 +16309,7 @@
         <v>2.2909999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="A79" s="9" t="s">
         <v>118</v>
       </c>
@@ -16259,7 +16359,7 @@
         <v>2.492</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="A80" s="9" t="s">
         <v>85</v>
       </c>
@@ -16309,7 +16409,7 @@
         <v>2.4489999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16">
       <c r="A81" s="9" t="s">
         <v>44</v>
       </c>
@@ -16359,7 +16459,7 @@
         <v>1.7649999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16">
       <c r="A82" s="9" t="s">
         <v>94</v>
       </c>
@@ -16409,7 +16509,7 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16">
       <c r="A83" s="9" t="s">
         <v>46</v>
       </c>
@@ -16459,7 +16559,7 @@
         <v>2.1560000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16">
       <c r="A84" s="9" t="s">
         <v>36</v>
       </c>
@@ -16509,7 +16609,7 @@
         <v>2.024</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16">
       <c r="A85" s="9" t="s">
         <v>146</v>
       </c>
@@ -16559,7 +16659,7 @@
         <v>3.0539999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="A86" s="9" t="s">
         <v>102</v>
       </c>
@@ -16609,7 +16709,7 @@
         <v>2.7549999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16">
       <c r="A87" s="9" t="s">
         <v>60</v>
       </c>
@@ -16659,7 +16759,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16">
       <c r="A88" s="9" t="s">
         <v>155</v>
       </c>
@@ -16709,7 +16809,7 @@
         <v>3.5249999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16">
       <c r="A89" s="9" t="s">
         <v>39</v>
       </c>
@@ -16759,7 +16859,7 @@
         <v>1.881</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16">
       <c r="A90" s="9" t="s">
         <v>56</v>
       </c>
@@ -16809,7 +16909,7 @@
         <v>2.6349999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16">
       <c r="A91" s="9" t="s">
         <v>41</v>
       </c>
@@ -16859,7 +16959,7 @@
         <v>2.363</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16">
       <c r="A92" s="9" t="s">
         <v>17</v>
       </c>
@@ -16909,7 +17009,7 @@
         <v>2.044</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16">
       <c r="A93" s="9" t="s">
         <v>144</v>
       </c>
@@ -16959,7 +17059,7 @@
         <v>3.528</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16">
       <c r="A94" s="9" t="s">
         <v>121</v>
       </c>
@@ -17009,7 +17109,7 @@
         <v>3.0110000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16">
       <c r="A95" s="9" t="s">
         <v>25</v>
       </c>
@@ -17059,7 +17159,7 @@
         <v>2.1429999999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16">
       <c r="A96" s="9" t="s">
         <v>139</v>
       </c>
@@ -17109,7 +17209,7 @@
         <v>3.218</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="A97" s="9" t="s">
         <v>68</v>
       </c>
@@ -17159,7 +17259,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="A98" s="9" t="s">
         <v>43</v>
       </c>
@@ -17209,7 +17309,7 @@
         <v>2.4409999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="A99" s="9" t="s">
         <v>67</v>
       </c>
@@ -17259,7 +17359,7 @@
         <v>2.3330000000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="A100" s="9" t="s">
         <v>89</v>
       </c>
@@ -17309,7 +17409,7 @@
         <v>2.2610000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="A101" s="9" t="s">
         <v>93</v>
       </c>
@@ -17359,7 +17459,7 @@
         <v>2.5150000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16">
       <c r="A102" s="9" t="s">
         <v>124</v>
       </c>
@@ -17409,7 +17509,7 @@
         <v>2.8860000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16">
       <c r="A103" s="9" t="s">
         <v>62</v>
       </c>
@@ -17459,7 +17559,7 @@
         <v>2.621</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16">
       <c r="A104" s="9" t="s">
         <v>75</v>
       </c>
@@ -17509,7 +17609,7 @@
         <v>2.6709999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105" s="9" t="s">
         <v>18</v>
       </c>
@@ -17559,7 +17659,7 @@
         <v>1.5369999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="A106" s="9" t="s">
         <v>2</v>
       </c>
@@ -17609,7 +17709,7 @@
         <v>1.4810000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="A107" s="9" t="s">
         <v>119</v>
       </c>
@@ -17659,7 +17759,7 @@
         <v>3.2450000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="A108" s="9" t="s">
         <v>125</v>
       </c>
@@ -17709,7 +17809,7 @@
         <v>3.1179999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16">
       <c r="A109" s="9" t="s">
         <v>147</v>
       </c>
@@ -17759,7 +17859,7 @@
         <v>3.044</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16">
       <c r="A110" s="9" t="s">
         <v>148</v>
       </c>
@@ -17809,7 +17909,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" s="9" t="s">
         <v>167</v>
       </c>
@@ -17859,7 +17959,7 @@
         <v>2.0640000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16">
       <c r="A112" s="9" t="s">
         <v>21</v>
       </c>
@@ -17909,7 +18009,7 @@
         <v>1.1819999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16">
       <c r="A113" s="9" t="s">
         <v>69</v>
       </c>
@@ -17959,7 +18059,7 @@
         <v>2.1080000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16">
       <c r="A114" s="9" t="s">
         <v>152</v>
       </c>
@@ -18009,7 +18109,7 @@
         <v>2.786</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16">
       <c r="A115" s="9" t="s">
         <v>141</v>
       </c>
@@ -18043,7 +18143,7 @@
         <v>2.9319999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16">
       <c r="A116" s="9" t="s">
         <v>48</v>
       </c>
@@ -18093,7 +18193,7 @@
         <v>2.5449999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16">
       <c r="A117" s="9" t="s">
         <v>97</v>
       </c>
@@ -18143,7 +18243,7 @@
         <v>2.8620000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16">
       <c r="A118" s="9" t="s">
         <v>87</v>
       </c>
@@ -18193,7 +18293,7 @@
         <v>2.5009999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16">
       <c r="A119" s="9" t="s">
         <v>79</v>
       </c>
@@ -18243,7 +18343,7 @@
         <v>2.5830000000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16">
       <c r="A120" s="9" t="s">
         <v>133</v>
       </c>
@@ -18293,7 +18393,7 @@
         <v>2.8959999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16">
       <c r="A121" s="9" t="s">
         <v>30</v>
       </c>
@@ -18343,7 +18443,7 @@
         <v>1.6279999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16">
       <c r="A122" s="9" t="s">
         <v>3</v>
       </c>
@@ -18393,7 +18493,7 @@
         <v>1.4430000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16">
       <c r="A123" s="9" t="s">
         <v>32</v>
       </c>
@@ -18443,7 +18543,7 @@
         <v>1.577</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16">
       <c r="A124" s="9" t="s">
         <v>120</v>
       </c>
@@ -18493,7 +18593,7 @@
         <v>2.8879999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16">
       <c r="A125" s="9" t="s">
         <v>26</v>
       </c>
@@ -18543,7 +18643,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16">
       <c r="A126" s="9" t="s">
         <v>153</v>
       </c>
@@ -18593,7 +18693,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16">
       <c r="A127" s="9" t="s">
         <v>78</v>
       </c>
@@ -18643,7 +18743,7 @@
         <v>2.4580000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16">
       <c r="A128" s="9" t="s">
         <v>128</v>
       </c>
@@ -18693,7 +18793,7 @@
         <v>2.2589999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16">
       <c r="A129" s="9" t="s">
         <v>59</v>
       </c>
@@ -18743,7 +18843,7 @@
         <v>2.319</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16">
       <c r="A130" s="9" t="s">
         <v>51</v>
       </c>
@@ -18793,7 +18893,7 @@
         <v>1.956</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16">
       <c r="A131" s="9" t="s">
         <v>53</v>
       </c>
@@ -18843,7 +18943,7 @@
         <v>2.258</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16">
       <c r="A132" s="9" t="s">
         <v>8</v>
       </c>
@@ -18893,7 +18993,7 @@
         <v>1.3080000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16">
       <c r="A133" s="9" t="s">
         <v>24</v>
       </c>
@@ -18943,7 +19043,7 @@
         <v>1.8360000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16">
       <c r="A134" s="9" t="s">
         <v>9</v>
       </c>
@@ -18993,7 +19093,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16">
       <c r="A135" s="9" t="s">
         <v>157</v>
       </c>
@@ -19043,7 +19143,7 @@
         <v>3.6150000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16">
       <c r="A136" s="9" t="s">
         <v>126</v>
       </c>
@@ -19093,7 +19193,7 @@
         <v>3.2759999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16">
       <c r="A137" s="9" t="s">
         <v>57</v>
       </c>
@@ -19143,7 +19243,7 @@
         <v>1.647</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16">
       <c r="A138" s="9" t="s">
         <v>160</v>
       </c>
@@ -19187,7 +19287,7 @@
         <v>3.891</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16">
       <c r="A139" s="9" t="s">
         <v>33</v>
       </c>
@@ -19237,7 +19337,7 @@
         <v>1.796</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16">
       <c r="A140" s="9" t="s">
         <v>73</v>
       </c>
@@ -19287,7 +19387,7 @@
         <v>2.3239999999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16">
       <c r="A141" s="9" t="s">
         <v>150</v>
       </c>
@@ -19337,7 +19437,7 @@
         <v>3.2440000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16">
       <c r="A142" s="9" t="s">
         <v>20</v>
       </c>
@@ -19387,7 +19487,7 @@
         <v>1.4550000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16">
       <c r="A143" s="9" t="s">
         <v>12</v>
       </c>
@@ -19437,7 +19537,7 @@
         <v>1.242</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16">
       <c r="A144" s="9" t="s">
         <v>161</v>
       </c>
@@ -19487,7 +19587,7 @@
         <v>3.657</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16">
       <c r="A145" s="9" t="s">
         <v>37</v>
       </c>
@@ -19537,7 +19637,7 @@
         <v>1.6870000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16">
       <c r="A146" s="9" t="s">
         <v>104</v>
       </c>
@@ -19587,7 +19687,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16">
       <c r="A147" s="9" t="s">
         <v>55</v>
       </c>
@@ -19637,7 +19737,7 @@
         <v>2.3490000000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16">
       <c r="A148" s="9" t="s">
         <v>116</v>
       </c>
@@ -19687,7 +19787,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16">
       <c r="A149" s="9" t="s">
         <v>63</v>
       </c>
@@ -19737,7 +19837,7 @@
         <v>2.2229999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16">
       <c r="A150" s="9" t="s">
         <v>49</v>
       </c>
@@ -19787,7 +19887,7 @@
         <v>2.3719999999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16">
       <c r="A151" s="9" t="s">
         <v>107</v>
       </c>
@@ -19837,7 +19937,7 @@
         <v>2.7149999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16">
       <c r="A152" s="9" t="s">
         <v>92</v>
       </c>
@@ -19887,7 +19987,7 @@
         <v>2.6709999999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16">
       <c r="A153" s="9" t="s">
         <v>81</v>
       </c>
@@ -19937,7 +20037,7 @@
         <v>2.5569999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16">
       <c r="A154" s="9" t="s">
         <v>151</v>
       </c>
@@ -19987,7 +20087,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16">
       <c r="A155" s="9" t="s">
         <v>114</v>
       </c>
@@ -20037,7 +20137,7 @@
         <v>2.4969999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16">
       <c r="A156" s="9" t="s">
         <v>105</v>
       </c>
@@ -20087,7 +20187,7 @@
         <v>2.8340000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16">
       <c r="A157" s="9" t="s">
         <v>149</v>
       </c>
@@ -20137,7 +20237,7 @@
         <v>2.9489999999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16">
       <c r="A158" s="9" t="s">
         <v>54</v>
       </c>
@@ -20187,7 +20287,7 @@
         <v>1.7090000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16">
       <c r="A159" s="9" t="s">
         <v>47</v>
       </c>
@@ -20237,7 +20337,7 @@
         <v>1.6839999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16">
       <c r="A160" s="9" t="s">
         <v>127</v>
       </c>
@@ -20287,7 +20387,7 @@
         <v>2.3109999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16">
       <c r="A161" s="9" t="s">
         <v>35</v>
       </c>
@@ -20337,7 +20437,7 @@
         <v>2.6019999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16">
       <c r="A162" s="9" t="s">
         <v>101</v>
       </c>
@@ -20387,7 +20487,7 @@
         <v>2.206</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16">
       <c r="A163" s="9" t="s">
         <v>143</v>
       </c>
@@ -20437,7 +20537,7 @@
         <v>4.0890000000000004</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16">
       <c r="A164" s="9" t="s">
         <v>58</v>
       </c>
@@ -20487,7 +20587,7 @@
         <v>2.1480000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16">
       <c r="A165" s="9" t="s">
         <v>159</v>
       </c>
@@ -20537,7 +20637,7 @@
         <v>3.944</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16">
       <c r="A166" s="9" t="s">
         <v>50</v>
       </c>
@@ -20587,7 +20687,7 @@
         <v>2.5030000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16">
       <c r="A167" s="9" t="s">
         <v>131</v>
       </c>
@@ -20638,6 +20738,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -20645,22 +20746,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:Z167"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="24" customHeight="1"/>
+    <row r="3" spans="1:26" ht="24.75" customHeight="1">
       <c r="D3" t="s">
         <v>5</v>
       </c>
@@ -20668,7 +20769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
@@ -20718,7 +20819,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="9" t="s">
         <v>162</v>
       </c>
@@ -20768,7 +20869,7 @@
         <v>2.5720000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="9" t="s">
         <v>52</v>
       </c>
@@ -20818,7 +20919,7 @@
         <v>1.661</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="9" t="s">
         <v>110</v>
       </c>
@@ -20868,7 +20969,7 @@
         <v>2.2480000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="9" t="s">
         <v>76</v>
       </c>
@@ -20918,7 +21019,7 @@
         <v>1.7829999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="9" t="s">
         <v>74</v>
       </c>
@@ -20968,7 +21069,7 @@
         <v>1.7809999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="9" t="s">
         <v>117</v>
       </c>
@@ -21018,7 +21119,7 @@
         <v>2.1240000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
@@ -21068,7 +21169,7 @@
         <v>1.8560000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
@@ -21118,7 +21219,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="9" t="s">
         <v>129</v>
       </c>
@@ -21168,7 +21269,7 @@
         <v>2.1930000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="9" t="s">
         <v>123</v>
       </c>
@@ -21218,7 +21319,7 @@
         <v>1.694</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="9" t="s">
         <v>100</v>
       </c>
@@ -21268,7 +21369,7 @@
         <v>1.5740000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="9" t="s">
         <v>96</v>
       </c>
@@ -21318,7 +21419,7 @@
         <v>1.921</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="9" t="s">
         <v>19</v>
       </c>
@@ -21368,7 +21469,7 @@
         <v>1.5720000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="9" t="s">
         <v>72</v>
       </c>
@@ -21418,7 +21519,7 @@
         <v>1.9970000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
@@ -21468,7 +21569,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="9" t="s">
         <v>84</v>
       </c>
@@ -21518,7 +21619,7 @@
         <v>2.0350000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="9" t="s">
         <v>80</v>
       </c>
@@ -21568,7 +21669,7 @@
         <v>1.512</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="9" t="s">
         <v>31</v>
       </c>
@@ -21618,7 +21719,7 @@
         <v>1.8240000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="9" t="s">
         <v>115</v>
       </c>
@@ -21668,7 +21769,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="9" t="s">
         <v>27</v>
       </c>
@@ -21718,7 +21819,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="9" t="s">
         <v>103</v>
       </c>
@@ -21768,7 +21869,7 @@
         <v>2.0550000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="9" t="s">
         <v>134</v>
       </c>
@@ -21818,7 +21919,7 @@
         <v>1.6319999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="9" t="s">
         <v>88</v>
       </c>
@@ -21868,7 +21969,7 @@
         <v>1.9139999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="9" t="s">
         <v>137</v>
       </c>
@@ -21918,7 +22019,7 @@
         <v>1.819</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="9" t="s">
         <v>7</v>
       </c>
@@ -21968,7 +22069,7 @@
         <v>1.4970000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="9" t="s">
         <v>156</v>
       </c>
@@ -22018,7 +22119,7 @@
         <v>2.2789999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -22068,7 +22169,7 @@
         <v>2.077</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="9" t="s">
         <v>28</v>
       </c>
@@ -22118,7 +22219,7 @@
         <v>1.6160000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="9" t="s">
         <v>109</v>
       </c>
@@ -22168,7 +22269,7 @@
         <v>2.0569999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="9" t="s">
         <v>142</v>
       </c>
@@ -22218,7 +22319,7 @@
         <v>2.2109999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="9" t="s">
         <v>34</v>
       </c>
@@ -22268,7 +22369,7 @@
         <v>1.6739999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="9" t="s">
         <v>106</v>
       </c>
@@ -22318,7 +22419,7 @@
         <v>1.647</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="9" t="s">
         <v>29</v>
       </c>
@@ -22368,7 +22469,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="9" t="s">
         <v>90</v>
       </c>
@@ -22418,7 +22519,7 @@
         <v>1.5609999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="9" t="s">
         <v>64</v>
       </c>
@@ -22468,7 +22569,7 @@
         <v>1.637</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="9" t="s">
         <v>11</v>
       </c>
@@ -22518,7 +22619,7 @@
         <v>1.3149999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="9" t="s">
         <v>154</v>
       </c>
@@ -22568,7 +22669,7 @@
         <v>2.0209999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" s="9" t="s">
         <v>6</v>
       </c>
@@ -22618,7 +22719,7 @@
         <v>1.3089999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="9" t="s">
         <v>108</v>
       </c>
@@ -22668,7 +22769,7 @@
         <v>1.9319999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="9" t="s">
         <v>83</v>
       </c>
@@ -22718,7 +22819,7 @@
         <v>1.6830000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="9" t="s">
         <v>71</v>
       </c>
@@ -22768,7 +22869,7 @@
         <v>1.776</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="9" t="s">
         <v>135</v>
       </c>
@@ -22818,7 +22919,7 @@
         <v>2.1030000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="9" t="s">
         <v>112</v>
       </c>
@@ -22868,7 +22969,7 @@
         <v>1.7949999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="9" t="s">
         <v>70</v>
       </c>
@@ -22918,7 +23019,7 @@
         <v>1.5469999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" s="9" t="s">
         <v>132</v>
       </c>
@@ -22968,7 +23069,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" s="9" t="s">
         <v>38</v>
       </c>
@@ -23018,7 +23119,7 @@
         <v>1.593</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" s="9" t="s">
         <v>166</v>
       </c>
@@ -23068,7 +23169,7 @@
         <v>1.581</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" s="9" t="s">
         <v>130</v>
       </c>
@@ -23118,7 +23219,7 @@
         <v>1.8109999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" s="9" t="s">
         <v>15</v>
       </c>
@@ -23168,7 +23269,7 @@
         <v>1.6719999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" s="9" t="s">
         <v>61</v>
       </c>
@@ -23218,7 +23319,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" s="9" t="s">
         <v>95</v>
       </c>
@@ -23268,7 +23369,7 @@
         <v>1.734</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" s="9" t="s">
         <v>98</v>
       </c>
@@ -23318,7 +23419,7 @@
         <v>1.8129999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="9" t="s">
         <v>23</v>
       </c>
@@ -23368,7 +23469,7 @@
         <v>1.8720000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" s="9" t="s">
         <v>45</v>
       </c>
@@ -23418,7 +23519,7 @@
         <v>1.681</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" s="9" t="s">
         <v>66</v>
       </c>
@@ -23468,7 +23569,7 @@
         <v>2.0939999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" s="9" t="s">
         <v>113</v>
       </c>
@@ -23518,7 +23619,7 @@
         <v>1.796</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" s="9" t="s">
         <v>99</v>
       </c>
@@ -23568,7 +23669,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" s="9" t="s">
         <v>111</v>
       </c>
@@ -23618,7 +23719,7 @@
         <v>2.069</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" s="9" t="s">
         <v>91</v>
       </c>
@@ -23668,7 +23769,7 @@
         <v>1.5029999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" s="9" t="s">
         <v>86</v>
       </c>
@@ -23718,7 +23819,7 @@
         <v>1.752</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" s="9" t="s">
         <v>122</v>
       </c>
@@ -23768,7 +23869,7 @@
         <v>1.9450000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="9" t="s">
         <v>22</v>
       </c>
@@ -23818,7 +23919,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67" s="9" t="s">
         <v>1</v>
       </c>
@@ -23868,7 +23969,7 @@
         <v>1.028</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68" s="9" t="s">
         <v>140</v>
       </c>
@@ -23918,7 +24019,7 @@
         <v>2.496</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69" s="9" t="s">
         <v>42</v>
       </c>
@@ -23968,7 +24069,7 @@
         <v>1.395</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" s="9" t="s">
         <v>138</v>
       </c>
@@ -24018,7 +24119,7 @@
         <v>2.2130000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" s="9" t="s">
         <v>158</v>
       </c>
@@ -24068,7 +24169,7 @@
         <v>2.3460000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72" s="9" t="s">
         <v>13</v>
       </c>
@@ -24118,7 +24219,7 @@
         <v>1.2749999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73" s="9" t="s">
         <v>145</v>
       </c>
@@ -24168,7 +24269,7 @@
         <v>3.8279999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74" s="9" t="s">
         <v>40</v>
       </c>
@@ -24218,7 +24319,7 @@
         <v>2.004</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="A75" s="9" t="s">
         <v>82</v>
       </c>
@@ -24268,7 +24369,7 @@
         <v>1.6930000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="A76" s="9" t="s">
         <v>10</v>
       </c>
@@ -24318,7 +24419,7 @@
         <v>1.448</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="A77" s="9" t="s">
         <v>77</v>
       </c>
@@ -24368,7 +24469,7 @@
         <v>1.9670000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="A78" s="9" t="s">
         <v>65</v>
       </c>
@@ -24418,7 +24519,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="A79" s="9" t="s">
         <v>118</v>
       </c>
@@ -24468,7 +24569,7 @@
         <v>1.839</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="A80" s="9" t="s">
         <v>85</v>
       </c>
@@ -24518,7 +24619,7 @@
         <v>1.575</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16">
       <c r="A81" s="9" t="s">
         <v>44</v>
       </c>
@@ -24568,7 +24669,7 @@
         <v>1.9159999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16">
       <c r="A82" s="9" t="s">
         <v>94</v>
       </c>
@@ -24618,7 +24719,7 @@
         <v>1.675</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16">
       <c r="A83" s="9" t="s">
         <v>46</v>
       </c>
@@ -24668,7 +24769,7 @@
         <v>1.804</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16">
       <c r="A84" s="9" t="s">
         <v>36</v>
       </c>
@@ -24718,7 +24819,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16">
       <c r="A85" s="9" t="s">
         <v>146</v>
       </c>
@@ -24768,7 +24869,7 @@
         <v>2.7050000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="A86" s="9" t="s">
         <v>102</v>
       </c>
@@ -24818,7 +24919,7 @@
         <v>1.8129999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16">
       <c r="A87" s="9" t="s">
         <v>60</v>
       </c>
@@ -24868,7 +24969,7 @@
         <v>1.792</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16">
       <c r="A88" s="9" t="s">
         <v>155</v>
       </c>
@@ -24918,7 +25019,7 @@
         <v>2.4369999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16">
       <c r="A89" s="9" t="s">
         <v>39</v>
       </c>
@@ -24968,7 +25069,7 @@
         <v>1.7390000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16">
       <c r="A90" s="9" t="s">
         <v>56</v>
       </c>
@@ -25018,7 +25119,7 @@
         <v>1.5289999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16">
       <c r="A91" s="9" t="s">
         <v>41</v>
       </c>
@@ -25068,7 +25169,7 @@
         <v>1.587</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16">
       <c r="A92" s="9" t="s">
         <v>17</v>
       </c>
@@ -25118,7 +25219,7 @@
         <v>1.266</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16">
       <c r="A93" s="9" t="s">
         <v>144</v>
       </c>
@@ -25168,7 +25269,7 @@
         <v>1.806</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16">
       <c r="A94" s="9" t="s">
         <v>121</v>
       </c>
@@ -25218,7 +25319,7 @@
         <v>2.004</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16">
       <c r="A95" s="9" t="s">
         <v>25</v>
       </c>
@@ -25268,7 +25369,7 @@
         <v>1.448</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16">
       <c r="A96" s="9" t="s">
         <v>139</v>
       </c>
@@ -25318,7 +25419,7 @@
         <v>1.6950000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="A97" s="9" t="s">
         <v>68</v>
       </c>
@@ -25368,7 +25469,7 @@
         <v>1.2430000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="A98" s="9" t="s">
         <v>43</v>
       </c>
@@ -25418,7 +25519,7 @@
         <v>1.409</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="A99" s="9" t="s">
         <v>67</v>
       </c>
@@ -25468,7 +25569,7 @@
         <v>1.6319999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="A100" s="9" t="s">
         <v>89</v>
       </c>
@@ -25518,7 +25619,7 @@
         <v>1.798</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="A101" s="9" t="s">
         <v>93</v>
       </c>
@@ -25568,7 +25669,7 @@
         <v>1.6839999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16">
       <c r="A102" s="9" t="s">
         <v>124</v>
       </c>
@@ -25618,7 +25719,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16">
       <c r="A103" s="9" t="s">
         <v>62</v>
       </c>
@@ -25668,7 +25769,7 @@
         <v>1.742</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16">
       <c r="A104" s="9" t="s">
         <v>75</v>
       </c>
@@ -25718,7 +25819,7 @@
         <v>1.718</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105" s="9" t="s">
         <v>18</v>
       </c>
@@ -25768,7 +25869,7 @@
         <v>2.1659999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="A106" s="9" t="s">
         <v>2</v>
       </c>
@@ -25818,7 +25919,7 @@
         <v>1.1970000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="A107" s="9" t="s">
         <v>119</v>
       </c>
@@ -25868,7 +25969,7 @@
         <v>1.6679999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="A108" s="9" t="s">
         <v>125</v>
       </c>
@@ -25918,7 +26019,7 @@
         <v>1.9590000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16">
       <c r="A109" s="9" t="s">
         <v>147</v>
       </c>
@@ -25968,7 +26069,7 @@
         <v>2.0419999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16">
       <c r="A110" s="9" t="s">
         <v>148</v>
       </c>
@@ -26018,7 +26119,7 @@
         <v>3.1349999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" s="9" t="s">
         <v>167</v>
       </c>
@@ -26068,7 +26169,7 @@
         <v>1.6970000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16">
       <c r="A112" s="9" t="s">
         <v>21</v>
       </c>
@@ -26118,7 +26219,7 @@
         <v>2.2639999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16">
       <c r="A113" s="9" t="s">
         <v>69</v>
       </c>
@@ -26168,7 +26269,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16">
       <c r="A114" s="9" t="s">
         <v>152</v>
       </c>
@@ -26218,7 +26319,7 @@
         <v>2.5619999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16">
       <c r="A115" s="9" t="s">
         <v>141</v>
       </c>
@@ -26252,7 +26353,7 @@
         <v>1.9910000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16">
       <c r="A116" s="9" t="s">
         <v>48</v>
       </c>
@@ -26302,7 +26403,7 @@
         <v>1.5469999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16">
       <c r="A117" s="9" t="s">
         <v>97</v>
       </c>
@@ -26352,7 +26453,7 @@
         <v>1.6970000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16">
       <c r="A118" s="9" t="s">
         <v>87</v>
       </c>
@@ -26402,7 +26503,7 @@
         <v>2.004</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16">
       <c r="A119" s="9" t="s">
         <v>79</v>
       </c>
@@ -26452,7 +26553,7 @@
         <v>1.9379999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16">
       <c r="A120" s="9" t="s">
         <v>133</v>
       </c>
@@ -26502,7 +26603,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16">
       <c r="A121" s="9" t="s">
         <v>30</v>
       </c>
@@ -26552,7 +26653,7 @@
         <v>1.5269999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16">
       <c r="A122" s="9" t="s">
         <v>3</v>
       </c>
@@ -26602,7 +26703,7 @@
         <v>1.3120000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16">
       <c r="A123" s="9" t="s">
         <v>32</v>
       </c>
@@ -26652,7 +26753,7 @@
         <v>2.1960000000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16">
       <c r="A124" s="9" t="s">
         <v>120</v>
       </c>
@@ -26702,7 +26803,7 @@
         <v>2.194</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16">
       <c r="A125" s="9" t="s">
         <v>26</v>
       </c>
@@ -26752,7 +26853,7 @@
         <v>1.7729999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16">
       <c r="A126" s="9" t="s">
         <v>153</v>
       </c>
@@ -26802,7 +26903,7 @@
         <v>3.234</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16">
       <c r="A127" s="9" t="s">
         <v>78</v>
       </c>
@@ -26852,7 +26953,7 @@
         <v>1.512</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16">
       <c r="A128" s="9" t="s">
         <v>128</v>
       </c>
@@ -26902,7 +27003,7 @@
         <v>2.6139999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16">
       <c r="A129" s="9" t="s">
         <v>59</v>
       </c>
@@ -26952,7 +27053,7 @@
         <v>1.7010000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16">
       <c r="A130" s="9" t="s">
         <v>51</v>
       </c>
@@ -27002,7 +27103,7 @@
         <v>1.796</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16">
       <c r="A131" s="9" t="s">
         <v>53</v>
       </c>
@@ -27052,7 +27153,7 @@
         <v>1.605</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16">
       <c r="A132" s="9" t="s">
         <v>8</v>
       </c>
@@ -27102,7 +27203,7 @@
         <v>1.9430000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16">
       <c r="A133" s="9" t="s">
         <v>24</v>
       </c>
@@ -27152,7 +27253,7 @@
         <v>1.274</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16">
       <c r="A134" s="9" t="s">
         <v>9</v>
       </c>
@@ -27202,7 +27303,7 @@
         <v>1.129</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16">
       <c r="A135" s="9" t="s">
         <v>157</v>
       </c>
@@ -27252,7 +27353,7 @@
         <v>2.1549999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16">
       <c r="A136" s="9" t="s">
         <v>126</v>
       </c>
@@ -27302,7 +27403,7 @@
         <v>1.758</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16">
       <c r="A137" s="9" t="s">
         <v>57</v>
       </c>
@@ -27352,7 +27453,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16">
       <c r="A138" s="9" t="s">
         <v>160</v>
       </c>
@@ -27396,7 +27497,7 @@
         <v>2.5939999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16">
       <c r="A139" s="9" t="s">
         <v>33</v>
       </c>
@@ -27446,7 +27547,7 @@
         <v>1.8979999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16">
       <c r="A140" s="9" t="s">
         <v>73</v>
       </c>
@@ -27496,7 +27597,7 @@
         <v>2.0470000000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16">
       <c r="A141" s="9" t="s">
         <v>150</v>
       </c>
@@ -27546,7 +27647,7 @@
         <v>2.3119999999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16">
       <c r="A142" s="9" t="s">
         <v>20</v>
       </c>
@@ -27596,7 +27697,7 @@
         <v>1.802</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16">
       <c r="A143" s="9" t="s">
         <v>12</v>
       </c>
@@ -27646,7 +27747,7 @@
         <v>1.929</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16">
       <c r="A144" s="9" t="s">
         <v>161</v>
       </c>
@@ -27696,7 +27797,7 @@
         <v>2.2869999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16">
       <c r="A145" s="9" t="s">
         <v>37</v>
       </c>
@@ -27746,7 +27847,7 @@
         <v>1.704</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16">
       <c r="A146" s="9" t="s">
         <v>104</v>
       </c>
@@ -27796,7 +27897,7 @@
         <v>1.7070000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16">
       <c r="A147" s="9" t="s">
         <v>55</v>
       </c>
@@ -27846,7 +27947,7 @@
         <v>1.6870000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16">
       <c r="A148" s="9" t="s">
         <v>116</v>
       </c>
@@ -27896,7 +27997,7 @@
         <v>1.5620000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16">
       <c r="A149" s="9" t="s">
         <v>63</v>
       </c>
@@ -27946,7 +28047,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16">
       <c r="A150" s="9" t="s">
         <v>49</v>
       </c>
@@ -27996,7 +28097,7 @@
         <v>1.667</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16">
       <c r="A151" s="9" t="s">
         <v>107</v>
       </c>
@@ -28046,7 +28147,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16">
       <c r="A152" s="9" t="s">
         <v>92</v>
       </c>
@@ -28096,7 +28197,7 @@
         <v>2.0979999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16">
       <c r="A153" s="9" t="s">
         <v>81</v>
       </c>
@@ -28146,7 +28247,7 @@
         <v>1.7689999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16">
       <c r="A154" s="9" t="s">
         <v>151</v>
       </c>
@@ -28196,7 +28297,7 @@
         <v>2.0579999999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16">
       <c r="A155" s="9" t="s">
         <v>114</v>
       </c>
@@ -28246,7 +28347,7 @@
         <v>2.383</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16">
       <c r="A156" s="9" t="s">
         <v>105</v>
       </c>
@@ -28296,7 +28397,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16">
       <c r="A157" s="9" t="s">
         <v>149</v>
       </c>
@@ -28346,7 +28447,7 @@
         <v>2.044</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16">
       <c r="A158" s="9" t="s">
         <v>54</v>
       </c>
@@ -28396,7 +28497,7 @@
         <v>2.6520000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16">
       <c r="A159" s="9" t="s">
         <v>47</v>
       </c>
@@ -28446,7 +28547,7 @@
         <v>2.4889999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16">
       <c r="A160" s="9" t="s">
         <v>127</v>
       </c>
@@ -28496,7 +28597,7 @@
         <v>3.1720000000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16">
       <c r="A161" s="9" t="s">
         <v>35</v>
       </c>
@@ -28546,7 +28647,7 @@
         <v>1.5820000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16">
       <c r="A162" s="9" t="s">
         <v>101</v>
       </c>
@@ -28596,7 +28697,7 @@
         <v>2.2130000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16">
       <c r="A163" s="9" t="s">
         <v>143</v>
       </c>
@@ -28646,7 +28747,7 @@
         <v>2.0019999999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16">
       <c r="A164" s="9" t="s">
         <v>58</v>
       </c>
@@ -28696,7 +28797,7 @@
         <v>1.8759999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16">
       <c r="A165" s="9" t="s">
         <v>159</v>
       </c>
@@ -28746,7 +28847,7 @@
         <v>2.2719999999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16">
       <c r="A166" s="9" t="s">
         <v>50</v>
       </c>
@@ -28796,7 +28897,7 @@
         <v>1.5189999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16">
       <c r="A167" s="9" t="s">
         <v>131</v>
       </c>
@@ -28847,6 +28948,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -28854,22 +28956,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:Z167"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="24" customHeight="1"/>
+    <row r="3" spans="1:26" ht="24.75" customHeight="1">
       <c r="D3" t="s">
         <v>5</v>
       </c>
@@ -28877,7 +28979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
@@ -28927,7 +29029,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="9" t="s">
         <v>162</v>
       </c>
@@ -28977,7 +29079,7 @@
         <v>3.641</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="9" t="s">
         <v>52</v>
       </c>
@@ -29027,7 +29129,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="9" t="s">
         <v>110</v>
       </c>
@@ -29077,7 +29179,7 @@
         <v>2.0880000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="9" t="s">
         <v>76</v>
       </c>
@@ -29127,7 +29229,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="9" t="s">
         <v>74</v>
       </c>
@@ -29177,7 +29279,7 @@
         <v>1.2010000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="9" t="s">
         <v>117</v>
       </c>
@@ -29227,7 +29329,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
@@ -29277,7 +29379,7 @@
         <v>1.0509999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
@@ -29327,7 +29429,7 @@
         <v>1.0069999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="9" t="s">
         <v>129</v>
       </c>
@@ -29377,7 +29479,7 @@
         <v>2.2589999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="9" t="s">
         <v>123</v>
       </c>
@@ -29427,7 +29529,7 @@
         <v>1.867</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="9" t="s">
         <v>100</v>
       </c>
@@ -29477,7 +29579,7 @@
         <v>2.0910000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="9" t="s">
         <v>96</v>
       </c>
@@ -29527,7 +29629,7 @@
         <v>2.2080000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="9" t="s">
         <v>19</v>
       </c>
@@ -29577,7 +29679,7 @@
         <v>1.1040000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="9" t="s">
         <v>72</v>
       </c>
@@ -29627,7 +29729,7 @@
         <v>1.619</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
@@ -29677,7 +29779,7 @@
         <v>1.409</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="9" t="s">
         <v>84</v>
       </c>
@@ -29727,7 +29829,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="9" t="s">
         <v>80</v>
       </c>
@@ -29777,7 +29879,7 @@
         <v>1.8109999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="9" t="s">
         <v>31</v>
       </c>
@@ -29827,7 +29929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="9" t="s">
         <v>115</v>
       </c>
@@ -29877,7 +29979,7 @@
         <v>1.798</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="9" t="s">
         <v>27</v>
       </c>
@@ -29927,7 +30029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="9" t="s">
         <v>103</v>
       </c>
@@ -29977,7 +30079,7 @@
         <v>2.327</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="9" t="s">
         <v>134</v>
       </c>
@@ -30027,7 +30129,7 @@
         <v>2.3210000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="9" t="s">
         <v>88</v>
       </c>
@@ -30077,7 +30179,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="9" t="s">
         <v>137</v>
       </c>
@@ -30127,7 +30229,7 @@
         <v>2.8210000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="9" t="s">
         <v>7</v>
       </c>
@@ -30177,7 +30279,7 @@
         <v>1.004</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="9" t="s">
         <v>156</v>
       </c>
@@ -30227,7 +30329,7 @@
         <v>3.0259999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -30277,7 +30379,7 @@
         <v>2.4049999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="9" t="s">
         <v>28</v>
       </c>
@@ -30327,7 +30429,7 @@
         <v>1.2010000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="9" t="s">
         <v>109</v>
       </c>
@@ -30377,7 +30479,7 @@
         <v>1.927</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="9" t="s">
         <v>142</v>
       </c>
@@ -30427,7 +30529,7 @@
         <v>2.1040000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="9" t="s">
         <v>34</v>
       </c>
@@ -30477,7 +30579,7 @@
         <v>1.2010000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="9" t="s">
         <v>106</v>
       </c>
@@ -30527,7 +30629,7 @@
         <v>1.641</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="9" t="s">
         <v>29</v>
       </c>
@@ -30577,7 +30679,7 @@
         <v>1.2010000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="9" t="s">
         <v>90</v>
       </c>
@@ -30627,7 +30729,7 @@
         <v>1.8049999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="9" t="s">
         <v>64</v>
       </c>
@@ -30677,7 +30779,7 @@
         <v>1.6040000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="9" t="s">
         <v>11</v>
       </c>
@@ -30727,7 +30829,7 @@
         <v>1.0069999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="9" t="s">
         <v>154</v>
       </c>
@@ -30777,7 +30879,7 @@
         <v>3.2429999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" s="9" t="s">
         <v>6</v>
       </c>
@@ -30827,7 +30929,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="9" t="s">
         <v>108</v>
       </c>
@@ -30877,7 +30979,7 @@
         <v>1.8779999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="9" t="s">
         <v>83</v>
       </c>
@@ -30927,7 +31029,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="9" t="s">
         <v>71</v>
       </c>
@@ -30977,7 +31079,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="9" t="s">
         <v>135</v>
       </c>
@@ -31027,7 +31129,7 @@
         <v>2.419</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="9" t="s">
         <v>112</v>
       </c>
@@ -31077,7 +31179,7 @@
         <v>1.409</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="9" t="s">
         <v>70</v>
       </c>
@@ -31127,7 +31229,7 @@
         <v>1.6040000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" s="9" t="s">
         <v>132</v>
       </c>
@@ -31177,7 +31279,7 @@
         <v>1.619</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" s="9" t="s">
         <v>38</v>
       </c>
@@ -31227,7 +31329,7 @@
         <v>1.409</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" s="9" t="s">
         <v>166</v>
       </c>
@@ -31277,7 +31379,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" s="9" t="s">
         <v>130</v>
       </c>
@@ -31327,7 +31429,7 @@
         <v>2.8410000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" s="9" t="s">
         <v>15</v>
       </c>
@@ -31377,7 +31479,7 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" s="9" t="s">
         <v>61</v>
       </c>
@@ -31427,7 +31529,7 @@
         <v>1.2270000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" s="9" t="s">
         <v>95</v>
       </c>
@@ -31477,7 +31579,7 @@
         <v>1.6040000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" s="9" t="s">
         <v>98</v>
       </c>
@@ -31527,7 +31629,7 @@
         <v>1.8049999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="9" t="s">
         <v>23</v>
       </c>
@@ -31577,7 +31679,7 @@
         <v>1.022</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" s="9" t="s">
         <v>45</v>
       </c>
@@ -31627,7 +31729,7 @@
         <v>1.413</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" s="9" t="s">
         <v>66</v>
       </c>
@@ -31677,7 +31779,7 @@
         <v>1.8049999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" s="9" t="s">
         <v>113</v>
       </c>
@@ -31727,7 +31829,7 @@
         <v>1.6060000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" s="9" t="s">
         <v>99</v>
       </c>
@@ -31777,7 +31879,7 @@
         <v>1.427</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" s="9" t="s">
         <v>111</v>
       </c>
@@ -31827,7 +31929,7 @@
         <v>1.609</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" s="9" t="s">
         <v>91</v>
       </c>
@@ -31877,7 +31979,7 @@
         <v>1.6040000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" s="9" t="s">
         <v>86</v>
       </c>
@@ -31927,7 +32029,7 @@
         <v>1.6040000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" s="9" t="s">
         <v>122</v>
       </c>
@@ -31977,7 +32079,7 @@
         <v>1.639</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="9" t="s">
         <v>22</v>
       </c>
@@ -32027,7 +32129,7 @@
         <v>1.407</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67" s="9" t="s">
         <v>1</v>
       </c>
@@ -32077,7 +32179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68" s="9" t="s">
         <v>140</v>
       </c>
@@ -32127,7 +32229,7 @@
         <v>2.9969999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69" s="9" t="s">
         <v>42</v>
       </c>
@@ -32177,7 +32279,7 @@
         <v>1.631</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" s="9" t="s">
         <v>138</v>
       </c>
@@ -32227,7 +32329,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" s="9" t="s">
         <v>158</v>
       </c>
@@ -32277,7 +32379,7 @@
         <v>3.1619999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72" s="9" t="s">
         <v>13</v>
       </c>
@@ -32327,7 +32429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73" s="9" t="s">
         <v>145</v>
       </c>
@@ -32377,7 +32479,7 @@
         <v>2.371</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74" s="9" t="s">
         <v>40</v>
       </c>
@@ -32427,7 +32529,7 @@
         <v>1.0069999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="A75" s="9" t="s">
         <v>82</v>
       </c>
@@ -32477,7 +32579,7 @@
         <v>1.2010000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="A76" s="9" t="s">
         <v>10</v>
       </c>
@@ -32527,7 +32629,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="A77" s="9" t="s">
         <v>77</v>
       </c>
@@ -32577,7 +32679,7 @@
         <v>1.488</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="A78" s="9" t="s">
         <v>65</v>
       </c>
@@ -32627,7 +32729,7 @@
         <v>1.6040000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="A79" s="9" t="s">
         <v>118</v>
       </c>
@@ -32677,7 +32779,7 @@
         <v>2.3109999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="A80" s="9" t="s">
         <v>85</v>
       </c>
@@ -32727,7 +32829,7 @@
         <v>1.8049999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16">
       <c r="A81" s="9" t="s">
         <v>44</v>
       </c>
@@ -32777,7 +32879,7 @@
         <v>1.448</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16">
       <c r="A82" s="9" t="s">
         <v>94</v>
       </c>
@@ -32827,7 +32929,7 @@
         <v>1.8049999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16">
       <c r="A83" s="9" t="s">
         <v>46</v>
       </c>
@@ -32877,7 +32979,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16">
       <c r="A84" s="9" t="s">
         <v>36</v>
       </c>
@@ -32927,7 +33029,7 @@
         <v>1.4079999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16">
       <c r="A85" s="9" t="s">
         <v>146</v>
       </c>
@@ -32977,7 +33079,7 @@
         <v>2.5630000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="A86" s="9" t="s">
         <v>102</v>
       </c>
@@ -33027,7 +33129,7 @@
         <v>1.8049999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16">
       <c r="A87" s="9" t="s">
         <v>60</v>
       </c>
@@ -33077,7 +33179,7 @@
         <v>1.4179999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16">
       <c r="A88" s="9" t="s">
         <v>155</v>
       </c>
@@ -33127,7 +33229,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16">
       <c r="A89" s="9" t="s">
         <v>39</v>
       </c>
@@ -33177,7 +33279,7 @@
         <v>1.407</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16">
       <c r="A90" s="9" t="s">
         <v>56</v>
       </c>
@@ -33227,7 +33329,7 @@
         <v>1.4330000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16">
       <c r="A91" s="9" t="s">
         <v>41</v>
       </c>
@@ -33277,7 +33379,7 @@
         <v>1.6040000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16">
       <c r="A92" s="9" t="s">
         <v>17</v>
       </c>
@@ -33327,7 +33429,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16">
       <c r="A93" s="9" t="s">
         <v>144</v>
       </c>
@@ -33377,7 +33479,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16">
       <c r="A94" s="9" t="s">
         <v>121</v>
       </c>
@@ -33427,7 +33529,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16">
       <c r="A95" s="9" t="s">
         <v>25</v>
       </c>
@@ -33477,7 +33579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16">
       <c r="A96" s="9" t="s">
         <v>139</v>
       </c>
@@ -33527,7 +33629,7 @@
         <v>2.6219999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="A97" s="9" t="s">
         <v>68</v>
       </c>
@@ -33577,7 +33679,7 @@
         <v>1.8049999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="A98" s="9" t="s">
         <v>43</v>
       </c>
@@ -33627,7 +33729,7 @@
         <v>1.2010000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="A99" s="9" t="s">
         <v>67</v>
       </c>
@@ -33677,7 +33779,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="A100" s="9" t="s">
         <v>89</v>
       </c>
@@ -33727,7 +33829,7 @@
         <v>1.865</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="A101" s="9" t="s">
         <v>93</v>
       </c>
@@ -33777,7 +33879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16">
       <c r="A102" s="9" t="s">
         <v>124</v>
       </c>
@@ -33827,7 +33929,7 @@
         <v>2.6070000000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16">
       <c r="A103" s="9" t="s">
         <v>62</v>
       </c>
@@ -33877,7 +33979,7 @@
         <v>1.2010000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16">
       <c r="A104" s="9" t="s">
         <v>75</v>
       </c>
@@ -33927,7 +34029,7 @@
         <v>1.462</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105" s="9" t="s">
         <v>18</v>
       </c>
@@ -33977,7 +34079,7 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="A106" s="9" t="s">
         <v>2</v>
       </c>
@@ -34027,7 +34129,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="A107" s="9" t="s">
         <v>119</v>
       </c>
@@ -34077,7 +34179,7 @@
         <v>2.0219999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="A108" s="9" t="s">
         <v>125</v>
       </c>
@@ -34127,7 +34229,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16">
       <c r="A109" s="9" t="s">
         <v>147</v>
       </c>
@@ -34177,7 +34279,7 @@
         <v>2.8719999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16">
       <c r="A110" s="9" t="s">
         <v>148</v>
       </c>
@@ -34227,7 +34329,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" s="9" t="s">
         <v>167</v>
       </c>
@@ -34277,7 +34379,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16">
       <c r="A112" s="9" t="s">
         <v>21</v>
       </c>
@@ -34327,7 +34429,7 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16">
       <c r="A113" s="9" t="s">
         <v>69</v>
       </c>
@@ -34377,7 +34479,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16">
       <c r="A114" s="9" t="s">
         <v>152</v>
       </c>
@@ -34427,7 +34529,7 @@
         <v>3.2559999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16">
       <c r="A115" s="9" t="s">
         <v>141</v>
       </c>
@@ -34461,7 +34563,7 @@
         <v>2.6120000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16">
       <c r="A116" s="9" t="s">
         <v>48</v>
       </c>
@@ -34511,7 +34613,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16">
       <c r="A117" s="9" t="s">
         <v>97</v>
       </c>
@@ -34561,7 +34663,7 @@
         <v>1.605</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16">
       <c r="A118" s="9" t="s">
         <v>87</v>
       </c>
@@ -34611,7 +34713,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16">
       <c r="A119" s="9" t="s">
         <v>79</v>
       </c>
@@ -34661,7 +34763,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16">
       <c r="A120" s="9" t="s">
         <v>133</v>
       </c>
@@ -34711,7 +34813,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16">
       <c r="A121" s="9" t="s">
         <v>30</v>
       </c>
@@ -34761,7 +34863,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16">
       <c r="A122" s="9" t="s">
         <v>3</v>
       </c>
@@ -34811,7 +34913,7 @@
         <v>1.0069999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16">
       <c r="A123" s="9" t="s">
         <v>32</v>
       </c>
@@ -34861,7 +34963,7 @@
         <v>1.246</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16">
       <c r="A124" s="9" t="s">
         <v>120</v>
       </c>
@@ -34911,7 +35013,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16">
       <c r="A125" s="9" t="s">
         <v>26</v>
       </c>
@@ -34961,7 +35063,7 @@
         <v>1.0069999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16">
       <c r="A126" s="9" t="s">
         <v>153</v>
       </c>
@@ -35011,7 +35113,7 @@
         <v>2.8439999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16">
       <c r="A127" s="9" t="s">
         <v>78</v>
       </c>
@@ -35061,7 +35163,7 @@
         <v>1.8580000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16">
       <c r="A128" s="9" t="s">
         <v>128</v>
       </c>
@@ -35111,7 +35213,7 @@
         <v>2.4249999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16">
       <c r="A129" s="9" t="s">
         <v>59</v>
       </c>
@@ -35161,7 +35263,7 @@
         <v>1.4179999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16">
       <c r="A130" s="9" t="s">
         <v>51</v>
       </c>
@@ -35211,7 +35313,7 @@
         <v>1.6040000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16">
       <c r="A131" s="9" t="s">
         <v>53</v>
       </c>
@@ -35261,7 +35363,7 @@
         <v>1.413</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16">
       <c r="A132" s="9" t="s">
         <v>8</v>
       </c>
@@ -35311,7 +35413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16">
       <c r="A133" s="9" t="s">
         <v>24</v>
       </c>
@@ -35361,7 +35463,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16">
       <c r="A134" s="9" t="s">
         <v>9</v>
       </c>
@@ -35411,7 +35513,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16">
       <c r="A135" s="9" t="s">
         <v>157</v>
       </c>
@@ -35461,7 +35563,7 @@
         <v>3.4740000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16">
       <c r="A136" s="9" t="s">
         <v>126</v>
       </c>
@@ -35511,7 +35613,7 @@
         <v>1.613</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16">
       <c r="A137" s="9" t="s">
         <v>57</v>
       </c>
@@ -35561,7 +35663,7 @@
         <v>1.8049999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16">
       <c r="A138" s="9" t="s">
         <v>160</v>
       </c>
@@ -35605,7 +35707,7 @@
         <v>3.2669999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16">
       <c r="A139" s="9" t="s">
         <v>33</v>
       </c>
@@ -35655,7 +35757,7 @@
         <v>1.218</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16">
       <c r="A140" s="9" t="s">
         <v>73</v>
       </c>
@@ -35705,7 +35807,7 @@
         <v>1.855</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16">
       <c r="A141" s="9" t="s">
         <v>150</v>
       </c>
@@ -35755,7 +35857,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16">
       <c r="A142" s="9" t="s">
         <v>20</v>
       </c>
@@ -35805,7 +35907,7 @@
         <v>1.2210000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16">
       <c r="A143" s="9" t="s">
         <v>12</v>
       </c>
@@ -35855,7 +35957,7 @@
         <v>1.0049999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16">
       <c r="A144" s="9" t="s">
         <v>161</v>
       </c>
@@ -35905,7 +36007,7 @@
         <v>3.8279999999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16">
       <c r="A145" s="9" t="s">
         <v>37</v>
       </c>
@@ -35955,7 +36057,7 @@
         <v>1.6040000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16">
       <c r="A146" s="9" t="s">
         <v>104</v>
       </c>
@@ -36005,7 +36107,7 @@
         <v>2.0569999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16">
       <c r="A147" s="9" t="s">
         <v>55</v>
       </c>
@@ -36055,7 +36157,7 @@
         <v>1.4790000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16">
       <c r="A148" s="9" t="s">
         <v>116</v>
       </c>
@@ -36105,7 +36207,7 @@
         <v>1.9159999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16">
       <c r="A149" s="9" t="s">
         <v>63</v>
       </c>
@@ -36155,7 +36257,7 @@
         <v>1.409</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16">
       <c r="A150" s="9" t="s">
         <v>49</v>
       </c>
@@ -36205,7 +36307,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16">
       <c r="A151" s="9" t="s">
         <v>107</v>
       </c>
@@ -36255,7 +36357,7 @@
         <v>1.8180000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16">
       <c r="A152" s="9" t="s">
         <v>92</v>
       </c>
@@ -36305,7 +36407,7 @@
         <v>1.2010000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16">
       <c r="A153" s="9" t="s">
         <v>81</v>
       </c>
@@ -36355,7 +36457,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16">
       <c r="A154" s="9" t="s">
         <v>151</v>
       </c>
@@ -36405,7 +36507,7 @@
         <v>3.1589999999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16">
       <c r="A155" s="9" t="s">
         <v>114</v>
       </c>
@@ -36455,7 +36557,7 @@
         <v>1.6040000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16">
       <c r="A156" s="9" t="s">
         <v>105</v>
       </c>
@@ -36505,7 +36607,7 @@
         <v>1.7649999999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16">
       <c r="A157" s="9" t="s">
         <v>149</v>
       </c>
@@ -36555,7 +36657,7 @@
         <v>2.7650000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16">
       <c r="A158" s="9" t="s">
         <v>54</v>
       </c>
@@ -36605,7 +36707,7 @@
         <v>1.464</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16">
       <c r="A159" s="9" t="s">
         <v>47</v>
       </c>
@@ -36655,7 +36757,7 @@
         <v>1.042</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16">
       <c r="A160" s="9" t="s">
         <v>127</v>
       </c>
@@ -36705,7 +36807,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16">
       <c r="A161" s="9" t="s">
         <v>35</v>
       </c>
@@ -36755,7 +36857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16">
       <c r="A162" s="9" t="s">
         <v>101</v>
       </c>
@@ -36805,7 +36907,7 @@
         <v>1.8049999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16">
       <c r="A163" s="9" t="s">
         <v>143</v>
       </c>
@@ -36855,7 +36957,7 @@
         <v>2.1030000000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16">
       <c r="A164" s="9" t="s">
         <v>58</v>
       </c>
@@ -36905,7 +37007,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16">
       <c r="A165" s="9" t="s">
         <v>159</v>
       </c>
@@ -36955,7 +37057,7 @@
         <v>3.5590000000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16">
       <c r="A166" s="9" t="s">
         <v>50</v>
       </c>
@@ -37005,7 +37107,7 @@
         <v>1.6040000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16">
       <c r="A167" s="9" t="s">
         <v>131</v>
       </c>
@@ -37056,6 +37158,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
